--- a/config/conn_erp.xlsx
+++ b/config/conn_erp.xlsx
@@ -1,60 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
-    <sheet name="conn" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="conn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.207.201.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rds@2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIS20140904110155</t>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>db_name</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>192.168.0.110</t>
+  </si>
+  <si>
+    <t>Vxmt$h5502</t>
+  </si>
+  <si>
+    <t>AIS20200629100920</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,9 +90,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -366,14 +380,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,15 +410,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -408,7 +428,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>